--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.3313375706896</v>
+        <v>40.10475833333333</v>
       </c>
       <c r="N2">
-        <v>39.3313375706896</v>
+        <v>120.314275</v>
       </c>
       <c r="O2">
-        <v>0.5279473941967624</v>
+        <v>0.504709706355426</v>
       </c>
       <c r="P2">
-        <v>0.5279473941967624</v>
+        <v>0.5148319456493028</v>
       </c>
       <c r="Q2">
-        <v>1905.523480253385</v>
+        <v>2043.347022120575</v>
       </c>
       <c r="R2">
-        <v>1905.523480253385</v>
+        <v>18390.12319908517</v>
       </c>
       <c r="S2">
-        <v>0.08365264396715248</v>
+        <v>0.07671618413655201</v>
       </c>
       <c r="T2">
-        <v>0.08365264396715248</v>
+        <v>0.07933037597171889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.8028562861484</v>
+        <v>17.95818466666667</v>
       </c>
       <c r="N3">
-        <v>16.8028562861484</v>
+        <v>53.874554</v>
       </c>
       <c r="O3">
-        <v>0.2255459574796048</v>
+        <v>0.2259998685057908</v>
       </c>
       <c r="P3">
-        <v>0.2255459574796048</v>
+        <v>0.2305324239938148</v>
       </c>
       <c r="Q3">
-        <v>814.0642847712231</v>
+        <v>914.9738007728021</v>
       </c>
       <c r="R3">
-        <v>814.0642847712231</v>
+        <v>8234.764206955218</v>
       </c>
       <c r="S3">
-        <v>0.03573749181578514</v>
+        <v>0.03435211827473187</v>
       </c>
       <c r="T3">
-        <v>0.03573749181578514</v>
+        <v>0.03552270604738027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.67749133174014</v>
+        <v>10.51121033333333</v>
       </c>
       <c r="N4">
-        <v>7.67749133174014</v>
+        <v>31.533631</v>
       </c>
       <c r="O4">
-        <v>0.1030555224641289</v>
+        <v>0.1322813077860492</v>
       </c>
       <c r="P4">
-        <v>0.1030555224641289</v>
+        <v>0.1349342844073753</v>
       </c>
       <c r="Q4">
-        <v>371.9588731448312</v>
+        <v>535.548678662603</v>
       </c>
       <c r="R4">
-        <v>371.9588731448312</v>
+        <v>4819.938107963427</v>
       </c>
       <c r="S4">
-        <v>0.0163290263846396</v>
+        <v>0.02010683971033433</v>
       </c>
       <c r="T4">
-        <v>0.0163290263846396</v>
+        <v>0.02079200330121634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.16530977138859</v>
+        <v>6.199977000000001</v>
       </c>
       <c r="N5">
-        <v>6.16530977138859</v>
+        <v>18.599931</v>
       </c>
       <c r="O5">
-        <v>0.08275739980544408</v>
+        <v>0.07802536908642958</v>
       </c>
       <c r="P5">
-        <v>0.08275739980544408</v>
+        <v>0.07959021209804724</v>
       </c>
       <c r="Q5">
-        <v>298.6967455988964</v>
+        <v>315.890309944503</v>
       </c>
       <c r="R5">
-        <v>298.6967455988964</v>
+        <v>2843.012789500527</v>
       </c>
       <c r="S5">
-        <v>0.01311281271139677</v>
+        <v>0.01185990383537749</v>
       </c>
       <c r="T5">
-        <v>0.01311281271139677</v>
+        <v>0.01226404364135536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.52159714034975</v>
+        <v>4.68691</v>
       </c>
       <c r="N6">
-        <v>4.52159714034975</v>
+        <v>9.37382</v>
       </c>
       <c r="O6">
-        <v>0.06069372605405977</v>
+        <v>0.05898374826630448</v>
       </c>
       <c r="P6">
-        <v>0.06069372605405977</v>
+        <v>0.04011113385145983</v>
       </c>
       <c r="Q6">
-        <v>219.0622046274828</v>
+        <v>238.79918467149</v>
       </c>
       <c r="R6">
-        <v>219.0622046274828</v>
+        <v>1432.79510802894</v>
       </c>
       <c r="S6">
-        <v>0.009616849543058668</v>
+        <v>0.008965565821465004</v>
       </c>
       <c r="T6">
-        <v>0.009616849543058668</v>
+        <v>0.006180718496547629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.3313375706896</v>
+        <v>40.10475833333333</v>
       </c>
       <c r="N7">
-        <v>39.3313375706896</v>
+        <v>120.314275</v>
       </c>
       <c r="O7">
-        <v>0.5279473941967624</v>
+        <v>0.504709706355426</v>
       </c>
       <c r="P7">
-        <v>0.5279473941967624</v>
+        <v>0.5148319456493028</v>
       </c>
       <c r="Q7">
-        <v>536.7114720326172</v>
+        <v>609.4783222069776</v>
       </c>
       <c r="R7">
-        <v>536.7114720326172</v>
+        <v>5485.304899862799</v>
       </c>
       <c r="S7">
-        <v>0.0235616795847935</v>
+        <v>0.02288248187287505</v>
       </c>
       <c r="T7">
-        <v>0.0235616795847935</v>
+        <v>0.02366222864930424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.8028562861484</v>
+        <v>17.95818466666667</v>
       </c>
       <c r="N8">
-        <v>16.8028562861484</v>
+        <v>53.874554</v>
       </c>
       <c r="O8">
-        <v>0.2255459574796048</v>
+        <v>0.2259998685057908</v>
       </c>
       <c r="P8">
-        <v>0.2255459574796048</v>
+        <v>0.2305324239938148</v>
       </c>
       <c r="Q8">
-        <v>229.290084922304</v>
+        <v>272.9133578003875</v>
       </c>
       <c r="R8">
-        <v>229.290084922304</v>
+        <v>2456.220220203488</v>
       </c>
       <c r="S8">
-        <v>0.01006585436389014</v>
+        <v>0.01024636108486901</v>
       </c>
       <c r="T8">
-        <v>0.01006585436389014</v>
+        <v>0.01059551757368183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.67749133174014</v>
+        <v>10.51121033333333</v>
       </c>
       <c r="N9">
-        <v>7.67749133174014</v>
+        <v>31.533631</v>
       </c>
       <c r="O9">
-        <v>0.1030555224641289</v>
+        <v>0.1322813077860492</v>
       </c>
       <c r="P9">
-        <v>0.1030555224641289</v>
+        <v>0.1349342844073753</v>
       </c>
       <c r="Q9">
-        <v>104.7662736302833</v>
+        <v>159.7405171994257</v>
       </c>
       <c r="R9">
-        <v>104.7662736302833</v>
+        <v>1437.664654794832</v>
       </c>
       <c r="S9">
-        <v>0.004599248384278102</v>
+        <v>0.005997357668019284</v>
       </c>
       <c r="T9">
-        <v>0.004599248384278102</v>
+        <v>0.006201724499148487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.16530977138859</v>
+        <v>6.199977000000001</v>
       </c>
       <c r="N10">
-        <v>6.16530977138859</v>
+        <v>18.599931</v>
       </c>
       <c r="O10">
-        <v>0.08275739980544408</v>
+        <v>0.07802536908642958</v>
       </c>
       <c r="P10">
-        <v>0.08275739980544408</v>
+        <v>0.07959021209804724</v>
       </c>
       <c r="Q10">
-        <v>84.131196326386</v>
+        <v>94.222025932048</v>
       </c>
       <c r="R10">
-        <v>84.131196326386</v>
+        <v>847.998233388432</v>
       </c>
       <c r="S10">
-        <v>0.003693366723503156</v>
+        <v>0.003537506949563772</v>
       </c>
       <c r="T10">
-        <v>0.003693366723503156</v>
+        <v>0.003658051550269343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52159714034975</v>
+        <v>4.68691</v>
       </c>
       <c r="N11">
-        <v>4.52159714034975</v>
+        <v>9.37382</v>
       </c>
       <c r="O11">
-        <v>0.06069372605405977</v>
+        <v>0.05898374826630448</v>
       </c>
       <c r="P11">
-        <v>0.06069372605405977</v>
+        <v>0.04011113385145983</v>
       </c>
       <c r="Q11">
-        <v>61.7012592763709</v>
+        <v>71.22770867717333</v>
       </c>
       <c r="R11">
-        <v>61.7012592763709</v>
+        <v>427.36625206304</v>
       </c>
       <c r="S11">
-        <v>0.002708690566166563</v>
+        <v>0.002674199710253754</v>
       </c>
       <c r="T11">
-        <v>0.002708690566166563</v>
+        <v>0.001843550752040197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.3313375706896</v>
+        <v>40.10475833333333</v>
       </c>
       <c r="N12">
-        <v>39.3313375706896</v>
+        <v>120.314275</v>
       </c>
       <c r="O12">
-        <v>0.5279473941967624</v>
+        <v>0.504709706355426</v>
       </c>
       <c r="P12">
-        <v>0.5279473941967624</v>
+        <v>0.5148319456493028</v>
       </c>
       <c r="Q12">
-        <v>4050.207614296556</v>
+        <v>4983.108463860833</v>
       </c>
       <c r="R12">
-        <v>4050.207614296556</v>
+        <v>44847.97617474749</v>
       </c>
       <c r="S12">
-        <v>0.1778044611167672</v>
+        <v>0.187087686206734</v>
       </c>
       <c r="T12">
-        <v>0.1778044611167672</v>
+        <v>0.1934629133800689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8028562861484</v>
+        <v>17.95818466666667</v>
       </c>
       <c r="N13">
-        <v>16.8028562861484</v>
+        <v>53.874554</v>
       </c>
       <c r="O13">
-        <v>0.2255459574796048</v>
+        <v>0.2259998685057908</v>
       </c>
       <c r="P13">
-        <v>0.2255459574796048</v>
+        <v>0.2305324239938148</v>
       </c>
       <c r="Q13">
-        <v>1730.301095145181</v>
+        <v>2231.345748658066</v>
       </c>
       <c r="R13">
-        <v>1730.301095145181</v>
+        <v>20082.1117379226</v>
       </c>
       <c r="S13">
-        <v>0.07596036625531721</v>
+        <v>0.0837744785752127</v>
       </c>
       <c r="T13">
-        <v>0.07596036625531721</v>
+        <v>0.08662918987702702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H14">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I14">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J14">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.67749133174014</v>
+        <v>10.51121033333333</v>
       </c>
       <c r="N14">
-        <v>7.67749133174014</v>
+        <v>31.533631</v>
       </c>
       <c r="O14">
-        <v>0.1030555224641289</v>
+        <v>0.1322813077860492</v>
       </c>
       <c r="P14">
-        <v>0.1030555224641289</v>
+        <v>0.1349342844073753</v>
       </c>
       <c r="Q14">
-        <v>790.6019924855691</v>
+        <v>1306.042059700433</v>
       </c>
       <c r="R14">
-        <v>790.6019924855691</v>
+        <v>11754.3785373039</v>
       </c>
       <c r="S14">
-        <v>0.03470749517519581</v>
+        <v>0.04903453111849729</v>
       </c>
       <c r="T14">
-        <v>0.03470749517519581</v>
+        <v>0.05070543892411815</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H15">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I15">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J15">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.16530977138859</v>
+        <v>6.199977000000001</v>
       </c>
       <c r="N15">
-        <v>6.16530977138859</v>
+        <v>18.599931</v>
       </c>
       <c r="O15">
-        <v>0.08275739980544408</v>
+        <v>0.07802536908642958</v>
       </c>
       <c r="P15">
-        <v>0.08275739980544408</v>
+        <v>0.07959021209804724</v>
       </c>
       <c r="Q15">
-        <v>634.8826692124421</v>
+        <v>770.3614021971</v>
       </c>
       <c r="R15">
-        <v>634.8826692124421</v>
+        <v>6933.2526197739</v>
       </c>
       <c r="S15">
-        <v>0.02787140354811145</v>
+        <v>0.02892273634525001</v>
       </c>
       <c r="T15">
-        <v>0.02787140354811145</v>
+        <v>0.02990831171054522</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H16">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I16">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J16">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.52159714034975</v>
+        <v>4.68691</v>
       </c>
       <c r="N16">
-        <v>4.52159714034975</v>
+        <v>9.37382</v>
       </c>
       <c r="O16">
-        <v>0.06069372605405977</v>
+        <v>0.05898374826630448</v>
       </c>
       <c r="P16">
-        <v>0.06069372605405977</v>
+        <v>0.04011113385145983</v>
       </c>
       <c r="Q16">
-        <v>465.6187228240507</v>
+        <v>582.359347393</v>
       </c>
       <c r="R16">
-        <v>465.6187228240507</v>
+        <v>3494.156084358</v>
       </c>
       <c r="S16">
-        <v>0.02044070180634101</v>
+        <v>0.02186431694890412</v>
       </c>
       <c r="T16">
-        <v>0.02044070180634101</v>
+        <v>0.01507291239298377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H17">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I17">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J17">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.3313375706896</v>
+        <v>40.10475833333333</v>
       </c>
       <c r="N17">
-        <v>39.3313375706896</v>
+        <v>120.314275</v>
       </c>
       <c r="O17">
-        <v>0.5279473941967624</v>
+        <v>0.504709706355426</v>
       </c>
       <c r="P17">
-        <v>0.5279473941967624</v>
+        <v>0.5148319456493028</v>
       </c>
       <c r="Q17">
-        <v>5101.216590833073</v>
+        <v>5260.280884070003</v>
       </c>
       <c r="R17">
-        <v>5101.216590833073</v>
+        <v>47342.52795663003</v>
       </c>
       <c r="S17">
-        <v>0.2239438451923702</v>
+        <v>0.1974939511221634</v>
       </c>
       <c r="T17">
-        <v>0.2239438451923702</v>
+        <v>0.2042237836904704</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H18">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I18">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J18">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.8028562861484</v>
+        <v>17.95818466666667</v>
       </c>
       <c r="N18">
-        <v>16.8028562861484</v>
+        <v>53.874554</v>
       </c>
       <c r="O18">
-        <v>0.2255459574796048</v>
+        <v>0.2259998685057908</v>
       </c>
       <c r="P18">
-        <v>0.2255459574796048</v>
+        <v>0.2305324239938148</v>
       </c>
       <c r="Q18">
-        <v>2179.30572806556</v>
+        <v>2355.458540094242</v>
       </c>
       <c r="R18">
-        <v>2179.30572806556</v>
+        <v>21199.12686084818</v>
       </c>
       <c r="S18">
-        <v>0.09567170809210003</v>
+        <v>0.08843421559415418</v>
       </c>
       <c r="T18">
-        <v>0.09567170809210003</v>
+        <v>0.09144771277154411</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H19">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I19">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J19">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.67749133174014</v>
+        <v>10.51121033333333</v>
       </c>
       <c r="N19">
-        <v>7.67749133174014</v>
+        <v>31.533631</v>
       </c>
       <c r="O19">
-        <v>0.1030555224641289</v>
+        <v>0.1322813077860492</v>
       </c>
       <c r="P19">
-        <v>0.1030555224641289</v>
+        <v>0.1349342844073753</v>
       </c>
       <c r="Q19">
-        <v>995.7593251706755</v>
+        <v>1378.687245172007</v>
       </c>
       <c r="R19">
-        <v>995.7593251706755</v>
+        <v>12408.18520654806</v>
       </c>
       <c r="S19">
-        <v>0.04371391964920741</v>
+        <v>0.05176194910718895</v>
       </c>
       <c r="T19">
-        <v>0.04371391964920741</v>
+        <v>0.05352579680440341</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H20">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I20">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J20">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.16530977138859</v>
+        <v>6.199977000000001</v>
       </c>
       <c r="N20">
-        <v>6.16530977138859</v>
+        <v>18.599931</v>
       </c>
       <c r="O20">
-        <v>0.08275739980544408</v>
+        <v>0.07802536908642958</v>
       </c>
       <c r="P20">
-        <v>0.08275739980544408</v>
+        <v>0.07959021209804724</v>
       </c>
       <c r="Q20">
-        <v>799.6316025842524</v>
+        <v>813.2107473059291</v>
       </c>
       <c r="R20">
-        <v>799.6316025842524</v>
+        <v>7318.896725753362</v>
       </c>
       <c r="S20">
-        <v>0.0351038958318001</v>
+        <v>0.03053148816954274</v>
       </c>
       <c r="T20">
-        <v>0.0351038958318001</v>
+        <v>0.03157188359570529</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H21">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I21">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J21">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.52159714034975</v>
+        <v>4.68691</v>
       </c>
       <c r="N21">
-        <v>4.52159714034975</v>
+        <v>9.37382</v>
       </c>
       <c r="O21">
-        <v>0.06069372605405977</v>
+        <v>0.05898374826630448</v>
       </c>
       <c r="P21">
-        <v>0.06069372605405977</v>
+        <v>0.04011113385145983</v>
       </c>
       <c r="Q21">
-        <v>586.4444937312392</v>
+        <v>614.7515682164034</v>
       </c>
       <c r="R21">
-        <v>586.4444937312392</v>
+        <v>3688.50940929842</v>
       </c>
       <c r="S21">
-        <v>0.02574496349636844</v>
+        <v>0.02308046259150826</v>
       </c>
       <c r="T21">
-        <v>0.02574496349636844</v>
+        <v>0.01591130385844411</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H22">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I22">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J22">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.3313375706896</v>
+        <v>40.10475833333333</v>
       </c>
       <c r="N22">
-        <v>39.3313375706896</v>
+        <v>120.314275</v>
       </c>
       <c r="O22">
-        <v>0.5279473941967624</v>
+        <v>0.504709706355426</v>
       </c>
       <c r="P22">
-        <v>0.5279473941967624</v>
+        <v>0.5148319456493028</v>
       </c>
       <c r="Q22">
-        <v>432.4539248624186</v>
+        <v>546.803715448625</v>
       </c>
       <c r="R22">
-        <v>432.4539248624186</v>
+        <v>3280.82229269175</v>
       </c>
       <c r="S22">
-        <v>0.01898476433567912</v>
+        <v>0.0205294030171015</v>
       </c>
       <c r="T22">
-        <v>0.01898476433567912</v>
+        <v>0.01415264395774034</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H23">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I23">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J23">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.8028562861484</v>
+        <v>17.95818466666667</v>
       </c>
       <c r="N23">
-        <v>16.8028562861484</v>
+        <v>53.874554</v>
       </c>
       <c r="O23">
-        <v>0.2255459574796048</v>
+        <v>0.2259998685057908</v>
       </c>
       <c r="P23">
-        <v>0.2255459574796048</v>
+        <v>0.2305324239938148</v>
       </c>
       <c r="Q23">
-        <v>184.7499118682181</v>
+        <v>244.84880364643</v>
       </c>
       <c r="R23">
-        <v>184.7499118682181</v>
+        <v>1469.09282187858</v>
       </c>
       <c r="S23">
-        <v>0.008110536952512262</v>
+        <v>0.009192694976822976</v>
       </c>
       <c r="T23">
-        <v>0.008110536952512262</v>
+        <v>0.006337297724181573</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H24">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I24">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J24">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.67749133174014</v>
+        <v>10.51121033333333</v>
       </c>
       <c r="N24">
-        <v>7.67749133174014</v>
+        <v>31.533631</v>
       </c>
       <c r="O24">
-        <v>0.1030555224641289</v>
+        <v>0.1322813077860492</v>
       </c>
       <c r="P24">
-        <v>0.1030555224641289</v>
+        <v>0.1349342844073753</v>
       </c>
       <c r="Q24">
-        <v>84.41516268143555</v>
+        <v>143.313888500645</v>
       </c>
       <c r="R24">
-        <v>84.41516268143555</v>
+        <v>859.88333100387</v>
       </c>
       <c r="S24">
-        <v>0.003705832870807964</v>
+        <v>0.005380630182009288</v>
       </c>
       <c r="T24">
-        <v>0.003705832870807964</v>
+        <v>0.00370932087848897</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H25">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I25">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J25">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.16530977138859</v>
+        <v>6.199977000000001</v>
       </c>
       <c r="N25">
-        <v>6.16530977138859</v>
+        <v>18.599931</v>
       </c>
       <c r="O25">
-        <v>0.08275739980544408</v>
+        <v>0.07802536908642958</v>
       </c>
       <c r="P25">
-        <v>0.08275739980544408</v>
+        <v>0.07959021209804724</v>
       </c>
       <c r="Q25">
-        <v>67.78850080645425</v>
+        <v>84.53287340914501</v>
       </c>
       <c r="R25">
-        <v>67.78850080645425</v>
+        <v>507.19724045487</v>
       </c>
       <c r="S25">
-        <v>0.002975920990632607</v>
+        <v>0.003173733786695551</v>
       </c>
       <c r="T25">
-        <v>0.002975920990632607</v>
+        <v>0.002187921600172027</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H26">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I26">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J26">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.52159714034975</v>
+        <v>4.68691</v>
       </c>
       <c r="N26">
-        <v>4.52159714034975</v>
+        <v>9.37382</v>
       </c>
       <c r="O26">
-        <v>0.06069372605405977</v>
+        <v>0.05898374826630448</v>
       </c>
       <c r="P26">
-        <v>0.06069372605405977</v>
+        <v>0.04011113385145983</v>
       </c>
       <c r="Q26">
-        <v>49.71563518470633</v>
+        <v>63.90313540035</v>
       </c>
       <c r="R26">
-        <v>49.71563518470633</v>
+        <v>255.6125416014</v>
       </c>
       <c r="S26">
-        <v>0.002182520642125103</v>
+        <v>0.002399203194173341</v>
       </c>
       <c r="T26">
-        <v>0.002182520642125103</v>
+        <v>0.001102648351444129</v>
       </c>
     </row>
   </sheetData>
